--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>500kg load cell</t>
   </si>
@@ -169,7 +169,49 @@
     <t>https://www.sparkfun.com/products/533</t>
   </si>
   <si>
-    <t>BAJA SAE 2017 Electronics Bill of Materials</t>
+    <t>BAJA SAE 2017-2018 Electronics Bill of Materials</t>
+  </si>
+  <si>
+    <t>Power Source</t>
+  </si>
+  <si>
+    <t>Arduino Mega</t>
+  </si>
+  <si>
+    <t>Control all input and output for components</t>
+  </si>
+  <si>
+    <t>Arduino 5V</t>
+  </si>
+  <si>
+    <t>External 5V</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>External 9V</t>
+  </si>
+  <si>
+    <t>Computer Fan</t>
+  </si>
+  <si>
+    <t>Cool components</t>
+  </si>
+  <si>
+    <t>External 12V</t>
+  </si>
+  <si>
+    <t>https://store.arduino.cc/usa/arduino-mega-2560-rev3</t>
+  </si>
+  <si>
+    <t>http://www.pchub.com/uph/laptop/656-79749-22693/Cooler-Master-MGT8012ZR-W25-Server-Square-Fan.html</t>
+  </si>
+  <si>
+    <t>PC Hub</t>
+  </si>
+  <si>
+    <t>arduino</t>
   </si>
 </sst>
 </file>
@@ -565,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE38B4DA-7DE4-4309-AC06-0721A144F80B}">
-  <dimension ref="B1:H15"/>
+  <dimension ref="B1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,10 +620,11 @@
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="37.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>44</v>
       </c>
@@ -592,7 +635,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
@@ -614,8 +657,11 @@
       <c r="H2" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -638,8 +684,11 @@
       <c r="H3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -662,8 +711,11 @@
       <c r="H4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -686,8 +738,11 @@
       <c r="H5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -710,8 +765,11 @@
       <c r="H6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -722,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E14" si="1">C7*D7</f>
+        <f t="shared" ref="E7:E16" si="1">C7*D7</f>
         <v>14.95</v>
       </c>
       <c r="F7" t="s">
@@ -734,8 +792,11 @@
       <c r="H7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -758,8 +819,11 @@
       <c r="H8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -782,8 +846,11 @@
       <c r="H9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -791,11 +858,11 @@
         <v>2.95</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>2.95</v>
+        <v>5.9</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -806,8 +873,11 @@
       <c r="H10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -815,11 +885,11 @@
         <v>2.95</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>2.95</v>
+        <v>5.9</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -830,8 +900,11 @@
       <c r="H11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -854,8 +927,11 @@
       <c r="H12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -869,8 +945,11 @@
       <c r="H13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>42</v>
       </c>
@@ -893,14 +972,71 @@
       <c r="H14" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="3" t="s">
+      <c r="I14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>38.5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1">
+        <v>23.39</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>23.39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="4">
-        <f>SUM(E3:E14)</f>
-        <v>117.80000000000001</v>
+      <c r="E17" s="4">
+        <f>SUM(E3:E16)</f>
+        <v>185.59000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -919,8 +1055,10 @@
     <hyperlink ref="G11" r:id="rId9" xr:uid="{72D1C858-F407-4608-94B1-A68BF56AEC2C}"/>
     <hyperlink ref="G14" r:id="rId10" xr:uid="{09BEBB27-8858-4F6F-B29B-E1496C5E000F}"/>
     <hyperlink ref="G12" r:id="rId11" xr:uid="{A693F035-CA40-45EB-B471-E05D6BCC198C}"/>
+    <hyperlink ref="G15" r:id="rId12" xr:uid="{384B4B0F-91A9-493E-BAE4-CF4A7F1007B8}"/>
+    <hyperlink ref="G16" r:id="rId13" xr:uid="{D964BCCA-8F50-4EB0-8B5B-284F3524A5C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>500kg load cell</t>
   </si>
@@ -109,21 +109,12 @@
     <t>http://www.robotshop.com/en/illuminated-toggle-switch-red.html</t>
   </si>
   <si>
-    <t>Arcade Button</t>
-  </si>
-  <si>
-    <t>standard LED</t>
-  </si>
-  <si>
     <t>http://www.robotshop.com/en/micro-sd-card-breakout-module.html</t>
   </si>
   <si>
     <t>Subtotal</t>
   </si>
   <si>
-    <t>https://www.adafruit.com/product/476</t>
-  </si>
-  <si>
     <t>Purpose</t>
   </si>
   <si>
@@ -212,6 +203,54 @@
   </si>
   <si>
     <t>arduino</t>
+  </si>
+  <si>
+    <t>http://www.orvac.com/Catalog/Push-Button/218975.html</t>
+  </si>
+  <si>
+    <t>orvac electronics</t>
+  </si>
+  <si>
+    <t>Push Button</t>
+  </si>
+  <si>
+    <t>Fan Grill</t>
+  </si>
+  <si>
+    <t>http://www.orvac.com/s.nl/it.A/id.20678/.f</t>
+  </si>
+  <si>
+    <t>Protect fan: product link doesn't match actual</t>
+  </si>
+  <si>
+    <t>SD Card Adapter</t>
+  </si>
+  <si>
+    <t>Viewing data on desktop</t>
+  </si>
+  <si>
+    <t>Standard LED</t>
+  </si>
+  <si>
+    <t>Custom Shield Arduino Mega</t>
+  </si>
+  <si>
+    <t>Connections for Soldering</t>
+  </si>
+  <si>
+    <t>Buck Converters 6pk</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Stepping voltage down</t>
+  </si>
+  <si>
+    <t>12V Power Source</t>
+  </si>
+  <si>
+    <t>Terminal Block</t>
   </si>
 </sst>
 </file>
@@ -607,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE38B4DA-7DE4-4309-AC06-0721A144F80B}">
-  <dimension ref="B1:I17"/>
+  <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +665,7 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -646,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -655,10 +694,10 @@
         <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -682,10 +721,10 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -709,10 +748,10 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -736,10 +775,10 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -760,13 +799,13 @@
         <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -780,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E16" si="1">C7*D7</f>
+        <f>C7*D7</f>
         <v>14.95</v>
       </c>
       <c r="F7" t="s">
@@ -790,10 +829,10 @@
         <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -807,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E8:E20" si="1">C8*D8</f>
         <v>5.25</v>
       </c>
       <c r="F8" t="s">
@@ -817,10 +856,10 @@
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -844,10 +883,10 @@
         <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -871,42 +910,42 @@
         <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1">
-        <v>2.95</v>
+        <v>3.19</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>5.9</v>
+        <v>6.38</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1">
         <v>0.35</v>
@@ -922,13 +961,13 @@
         <v>17</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -939,104 +978,216 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f>C13*D13</f>
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1">
+        <v>62</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <f>C14*D14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1">
         <v>4.3</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="1"/>
         <v>4.3</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="G15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1">
         <v>38.5</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="1"/>
         <v>38.5</v>
       </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="F16" t="s">
         <v>55</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="G16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="1">
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1">
         <v>23.39</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="1"/>
         <v>23.39</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="4">
+        <f>SUM(E3:E18)</f>
+        <v>188.76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>2.69</v>
+      </c>
+      <c r="F18" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="4">
-        <f>SUM(E3:E16)</f>
-        <v>185.59000000000003</v>
+      <c r="G18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="1">
+        <f>C21*D21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" ref="E22" si="2">C22*D22</f>
+        <v>1.98</v>
+      </c>
+      <c r="F22" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1053,12 +1204,13 @@
     <hyperlink ref="G9" r:id="rId7" xr:uid="{25E7E0B1-8F00-4413-B442-55693A7BE4F7}"/>
     <hyperlink ref="G10" r:id="rId8" xr:uid="{DC169C43-5AB6-4670-B456-990B68233B9E}"/>
     <hyperlink ref="G11" r:id="rId9" xr:uid="{72D1C858-F407-4608-94B1-A68BF56AEC2C}"/>
-    <hyperlink ref="G14" r:id="rId10" xr:uid="{09BEBB27-8858-4F6F-B29B-E1496C5E000F}"/>
+    <hyperlink ref="G15" r:id="rId10" xr:uid="{09BEBB27-8858-4F6F-B29B-E1496C5E000F}"/>
     <hyperlink ref="G12" r:id="rId11" xr:uid="{A693F035-CA40-45EB-B471-E05D6BCC198C}"/>
-    <hyperlink ref="G15" r:id="rId12" xr:uid="{384B4B0F-91A9-493E-BAE4-CF4A7F1007B8}"/>
-    <hyperlink ref="G16" r:id="rId13" xr:uid="{D964BCCA-8F50-4EB0-8B5B-284F3524A5C4}"/>
+    <hyperlink ref="G16" r:id="rId12" xr:uid="{384B4B0F-91A9-493E-BAE4-CF4A7F1007B8}"/>
+    <hyperlink ref="G17" r:id="rId13" xr:uid="{D964BCCA-8F50-4EB0-8B5B-284F3524A5C4}"/>
+    <hyperlink ref="G18" r:id="rId14" xr:uid="{4FE019D7-ADCF-4598-BA12-0F28849D1C6A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BAJA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jovanny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{DA5A5263-F4D8-4AD9-8F50-968DC5C3F64A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7650" xr2:uid="{DA5A5263-F4D8-4AD9-8F50-968DC5C3F64A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
   <si>
     <t>500kg load cell</t>
   </si>
@@ -251,6 +251,18 @@
   </si>
   <si>
     <t>Terminal Block</t>
+  </si>
+  <si>
+    <t>Part No.</t>
+  </si>
+  <si>
+    <t>30-10062</t>
+  </si>
+  <si>
+    <t>grm80-30</t>
+  </si>
+  <si>
+    <t>ntebu:25-e100-0</t>
   </si>
 </sst>
 </file>
@@ -649,7 +661,7 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +675,7 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>41</v>
       </c>
@@ -674,7 +686,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
@@ -699,8 +711,11 @@
       <c r="I2" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -727,7 +742,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -754,7 +769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -781,7 +796,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -808,7 +823,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -835,7 +850,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -862,7 +877,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -889,7 +904,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -916,7 +931,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>58</v>
       </c>
@@ -942,8 +957,11 @@
       <c r="I11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>64</v>
       </c>
@@ -970,7 +988,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -988,7 +1006,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>62</v>
       </c>
@@ -1006,7 +1024,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -1033,7 +1051,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>43</v>
       </c>
@@ -1120,6 +1138,9 @@
       <c r="I18" t="s">
         <v>47</v>
       </c>
+      <c r="J18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -1188,6 +1209,9 @@
       </c>
       <c r="F22" t="s">
         <v>57</v>
+      </c>
+      <c r="J22" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
   <si>
     <t>500kg load cell</t>
   </si>
@@ -85,15 +85,6 @@
     <t>http://www.robotshop.com/en/500kg-s-type-load-cell.html</t>
   </si>
   <si>
-    <t>robotshop</t>
-  </si>
-  <si>
-    <t>sparkfun</t>
-  </si>
-  <si>
-    <t>adafruit</t>
-  </si>
-  <si>
     <t>http://www.robotshop.com/en/strain-gauge-load-cell-amplifier-shield-2ch.html</t>
   </si>
   <si>
@@ -151,9 +142,6 @@
     <t>Saving recorded data</t>
   </si>
   <si>
-    <t>http://www.robotshop.com/en/magnet-8-x-3mm-10pk.html</t>
-  </si>
-  <si>
     <t>Magnets(10pk)</t>
   </si>
   <si>
@@ -202,15 +190,9 @@
     <t>PC Hub</t>
   </si>
   <si>
-    <t>arduino</t>
-  </si>
-  <si>
     <t>http://www.orvac.com/Catalog/Push-Button/218975.html</t>
   </si>
   <si>
-    <t>orvac electronics</t>
-  </si>
-  <si>
     <t>Push Button</t>
   </si>
   <si>
@@ -263,6 +245,54 @@
   </si>
   <si>
     <t>ntebu:25-e100-0</t>
+  </si>
+  <si>
+    <t>Harbor Freight</t>
+  </si>
+  <si>
+    <t>https://www.harborfreight.com/10-piece-rare-earth-magnets-67488.html</t>
+  </si>
+  <si>
+    <t>Arduino Stackable Header Kit</t>
+  </si>
+  <si>
+    <t>RobotShop.com</t>
+  </si>
+  <si>
+    <t>http://www.robotshop.com/en/arduino-mega-stackable-header-kit.html</t>
+  </si>
+  <si>
+    <t>Arduino Shield</t>
+  </si>
+  <si>
+    <t>Arduino Stackable 10-pin header (4pk)</t>
+  </si>
+  <si>
+    <t>http://www.robotshop.com/en/arduino-stackable-header-10-pin-4pk.html</t>
+  </si>
+  <si>
+    <t>http://www.robotshop.com/en/elenco-22-gauge-black-25-ft.html</t>
+  </si>
+  <si>
+    <t>Hook Up Wire (Bk/W/R)</t>
+  </si>
+  <si>
+    <t>Luis Orozco</t>
+  </si>
+  <si>
+    <t>Orvac Electronics</t>
+  </si>
+  <si>
+    <t>Sparkfun.com</t>
+  </si>
+  <si>
+    <t>Adafruit.com</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>Reimbursable:</t>
   </si>
 </sst>
 </file>
@@ -302,7 +332,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +342,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +366,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -342,6 +378,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -658,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE38B4DA-7DE4-4309-AC06-0721A144F80B}">
-  <dimension ref="B1:L22"/>
+  <dimension ref="B1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,15 +707,15 @@
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -697,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -706,13 +744,13 @@
         <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -730,16 +768,16 @@
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -757,97 +795,97 @@
         <v>19.95</v>
       </c>
       <c r="F4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="8">
         <v>0.95</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="8">
         <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
       <c r="F5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>7.5</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
         <v>14.95</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
         <f>C7*D7</f>
         <v>14.95</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -865,127 +903,127 @@
         <v>5.25</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="8">
         <v>3.5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="8">
         <v>2.95</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="8">
         <f t="shared" si="1"/>
         <v>5.9</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="8">
         <v>3.19</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <v>2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="8">
         <f t="shared" si="1"/>
         <v>6.38</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="8">
         <v>0.35</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>3</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="8">
         <f t="shared" si="1"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -1000,15 +1038,15 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1018,175 +1056,171 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="B15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2.99</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
         <f t="shared" si="1"/>
-        <v>4.3</v>
+        <v>2.99</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s">
         <v>44</v>
-      </c>
-      <c r="I16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1">
-        <v>23.39</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>23.39</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="4">
-        <f>SUM(E3:E18)</f>
-        <v>188.76</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="C18" s="8">
         <v>2.69</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
         <f t="shared" si="1"/>
         <v>2.69</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="8">
+        <v>20</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" t="s">
         <v>60</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I18" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="1">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="C20" s="8">
         <v>11</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1">
         <f>C21*D21</f>
@@ -1194,24 +1228,118 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="8">
         <v>0.99</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="7">
+        <v>5</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" ref="E22:E25" si="2">C22*D22</f>
+        <v>4.95</v>
+      </c>
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1.99</v>
+      </c>
+      <c r="D23" s="7">
         <v>2</v>
       </c>
-      <c r="E22" s="1">
-        <f t="shared" ref="E22" si="2">C22*D22</f>
-        <v>1.98</v>
-      </c>
-      <c r="F22" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="E23" s="8">
+        <f t="shared" si="2"/>
+        <v>3.98</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s">
         <v>75</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1.31</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="2"/>
+        <v>1.31</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="2"/>
+        <v>6.75</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="4">
+        <f>SUM(E3:E25)</f>
+        <v>173.54999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="1">
+        <f>SUM(E5,E6,E7,E9,E10,E11,E12,E15,E18,E19,E20,E22:E25)</f>
+        <v>98.350000000000009</v>
       </c>
     </row>
   </sheetData>
@@ -1228,13 +1356,15 @@
     <hyperlink ref="G9" r:id="rId7" xr:uid="{25E7E0B1-8F00-4413-B442-55693A7BE4F7}"/>
     <hyperlink ref="G10" r:id="rId8" xr:uid="{DC169C43-5AB6-4670-B456-990B68233B9E}"/>
     <hyperlink ref="G11" r:id="rId9" xr:uid="{72D1C858-F407-4608-94B1-A68BF56AEC2C}"/>
-    <hyperlink ref="G15" r:id="rId10" xr:uid="{09BEBB27-8858-4F6F-B29B-E1496C5E000F}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{A693F035-CA40-45EB-B471-E05D6BCC198C}"/>
-    <hyperlink ref="G16" r:id="rId12" xr:uid="{384B4B0F-91A9-493E-BAE4-CF4A7F1007B8}"/>
-    <hyperlink ref="G17" r:id="rId13" xr:uid="{D964BCCA-8F50-4EB0-8B5B-284F3524A5C4}"/>
-    <hyperlink ref="G18" r:id="rId14" xr:uid="{4FE019D7-ADCF-4598-BA12-0F28849D1C6A}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{A693F035-CA40-45EB-B471-E05D6BCC198C}"/>
+    <hyperlink ref="G16" r:id="rId11" xr:uid="{384B4B0F-91A9-493E-BAE4-CF4A7F1007B8}"/>
+    <hyperlink ref="G17" r:id="rId12" xr:uid="{D964BCCA-8F50-4EB0-8B5B-284F3524A5C4}"/>
+    <hyperlink ref="G18" r:id="rId13" xr:uid="{4FE019D7-ADCF-4598-BA12-0F28849D1C6A}"/>
+    <hyperlink ref="G23" r:id="rId14" xr:uid="{D525C2D6-5274-4537-93DE-61024A9E6610}"/>
+    <hyperlink ref="G24" r:id="rId15" xr:uid="{B9AEAAA7-F866-45FE-ACA1-5A60D07A64D8}"/>
+    <hyperlink ref="G25" r:id="rId16" xr:uid="{369ADC7C-E7DC-40A1-ACD1-04782E84449B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jovanny\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BAJA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7650" xr2:uid="{DA5A5263-F4D8-4AD9-8F50-968DC5C3F64A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{DA5A5263-F4D8-4AD9-8F50-968DC5C3F64A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="129">
   <si>
     <t>500kg load cell</t>
   </si>
@@ -85,6 +86,15 @@
     <t>http://www.robotshop.com/en/500kg-s-type-load-cell.html</t>
   </si>
   <si>
+    <t>robotshop</t>
+  </si>
+  <si>
+    <t>sparkfun</t>
+  </si>
+  <si>
+    <t>adafruit</t>
+  </si>
+  <si>
     <t>http://www.robotshop.com/en/strain-gauge-load-cell-amplifier-shield-2ch.html</t>
   </si>
   <si>
@@ -142,6 +152,9 @@
     <t>Saving recorded data</t>
   </si>
   <si>
+    <t>http://www.robotshop.com/en/magnet-8-x-3mm-10pk.html</t>
+  </si>
+  <si>
     <t>Magnets(10pk)</t>
   </si>
   <si>
@@ -169,9 +182,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>External 9V</t>
-  </si>
-  <si>
     <t>Computer Fan</t>
   </si>
   <si>
@@ -190,9 +200,15 @@
     <t>PC Hub</t>
   </si>
   <si>
+    <t>arduino</t>
+  </si>
+  <si>
     <t>http://www.orvac.com/Catalog/Push-Button/218975.html</t>
   </si>
   <si>
+    <t>orvac electronics</t>
+  </si>
+  <si>
     <t>Push Button</t>
   </si>
   <si>
@@ -235,64 +251,178 @@
     <t>Terminal Block</t>
   </si>
   <si>
-    <t>Part No.</t>
-  </si>
-  <si>
-    <t>30-10062</t>
-  </si>
-  <si>
-    <t>grm80-30</t>
-  </si>
-  <si>
-    <t>ntebu:25-e100-0</t>
-  </si>
-  <si>
-    <t>Harbor Freight</t>
-  </si>
-  <si>
-    <t>https://www.harborfreight.com/10-piece-rare-earth-magnets-67488.html</t>
-  </si>
-  <si>
-    <t>Arduino Stackable Header Kit</t>
-  </si>
-  <si>
-    <t>RobotShop.com</t>
-  </si>
-  <si>
-    <t>http://www.robotshop.com/en/arduino-mega-stackable-header-kit.html</t>
-  </si>
-  <si>
-    <t>Arduino Shield</t>
-  </si>
-  <si>
-    <t>Arduino Stackable 10-pin header (4pk)</t>
-  </si>
-  <si>
-    <t>http://www.robotshop.com/en/arduino-stackable-header-10-pin-4pk.html</t>
-  </si>
-  <si>
-    <t>http://www.robotshop.com/en/elenco-22-gauge-black-25-ft.html</t>
-  </si>
-  <si>
-    <t>Hook Up Wire (Bk/W/R)</t>
-  </si>
-  <si>
-    <t>Luis Orozco</t>
-  </si>
-  <si>
-    <t>Orvac Electronics</t>
-  </si>
-  <si>
-    <t>Sparkfun.com</t>
-  </si>
-  <si>
-    <t>Adafruit.com</t>
-  </si>
-  <si>
-    <t>Arduino</t>
-  </si>
-  <si>
-    <t>Reimbursable:</t>
+    <t>https://www.amazon.com/eBoot-LM2596-Converter-3-0-40V-1-5-35V/dp/B01GJ0SC2C/ref=sr_1_1_sspa?ie=UTF8&amp;qid=1507863050&amp;sr=8-1-spons&amp;keywords=buck+converter&amp;psc=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Battery Options</t>
+  </si>
+  <si>
+    <t>Sealed Lead Acid</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>1.7lbs</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>6V</t>
+  </si>
+  <si>
+    <t>Battery Clerk</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Amp Hours</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>12v</t>
+  </si>
+  <si>
+    <t>Battery Sharks</t>
+  </si>
+  <si>
+    <t>Lithium Ion</t>
+  </si>
+  <si>
+    <t>Pros</t>
+  </si>
+  <si>
+    <t>Cons</t>
+  </si>
+  <si>
+    <t>durability</t>
+  </si>
+  <si>
+    <t>inexpensive</t>
+  </si>
+  <si>
+    <t>rechargable</t>
+  </si>
+  <si>
+    <t>low capacity</t>
+  </si>
+  <si>
+    <t>heavy and large</t>
+  </si>
+  <si>
+    <t>low maintenace</t>
+  </si>
+  <si>
+    <t>rechargeable</t>
+  </si>
+  <si>
+    <t>high maintenance</t>
+  </si>
+  <si>
+    <t>lightweight</t>
+  </si>
+  <si>
+    <t>reconfigurable</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>expensive</t>
+  </si>
+  <si>
+    <t>adjustable capacity</t>
+  </si>
+  <si>
+    <t>batteryspace.com</t>
+  </si>
+  <si>
+    <t>4.8lbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width </t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>18.5mm</t>
+  </si>
+  <si>
+    <t>2.8in</t>
+  </si>
+  <si>
+    <t>5.95in</t>
+  </si>
+  <si>
+    <t>1.9in</t>
+  </si>
+  <si>
+    <t>2.56in</t>
+  </si>
+  <si>
+    <t>4.1in</t>
+  </si>
+  <si>
+    <t>3.7in</t>
+  </si>
+  <si>
+    <t>65.3mm</t>
+  </si>
+  <si>
+    <t>3.6V(10.8V)</t>
+  </si>
+  <si>
+    <t>slow charging (~8hrs)</t>
+  </si>
+  <si>
+    <t>fast charge</t>
+  </si>
+  <si>
+    <t>3.35*</t>
+  </si>
+  <si>
+    <t>*battery management system</t>
+  </si>
+  <si>
+    <t>48.5g(0.3lbs)</t>
+  </si>
+  <si>
+    <t>3.7V(11.1V)</t>
+  </si>
+  <si>
+    <t>2.2(6.6)</t>
+  </si>
+  <si>
+    <t>eBay(10 pack)</t>
+  </si>
+  <si>
+    <t>Minimum runtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 hours </t>
+  </si>
+  <si>
+    <t>4 hours</t>
+  </si>
+  <si>
+    <t>8 hours</t>
+  </si>
+  <si>
+    <t>5 hours</t>
+  </si>
+  <si>
+    <t>&lt;1lb</t>
   </si>
 </sst>
 </file>
@@ -332,7 +462,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,7 +477,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,7 +508,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -379,7 +521,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -696,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE38B4DA-7DE4-4309-AC06-0721A144F80B}">
-  <dimension ref="B1:L28"/>
+  <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,15 +871,15 @@
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -724,7 +888,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
@@ -735,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -744,16 +908,20 @@
         <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="4">
+        <f>SUM(E3:E22)</f>
+        <v>212.32999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -768,19 +936,19 @@
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -795,100 +963,100 @@
         <v>19.95</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="4">
         <v>0.95</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
-      <c r="F5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="G5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="13">
         <v>7.5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="12">
         <v>1</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="13">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="F6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="F6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="4">
         <v>14.95</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="4">
         <f>C7*D7</f>
         <v>14.95</v>
       </c>
-      <c r="F7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -903,130 +1071,127 @@
         <v>5.25</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="4">
         <v>3.5</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="1">
         <v>2.95</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
         <v>5.9</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1">
         <v>3.19</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="1">
         <f t="shared" si="1"/>
         <v>6.38</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1">
         <v>0.35</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="1">
         <f t="shared" si="1"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
         <v>36</v>
       </c>
-      <c r="H12" t="s">
-        <v>33</v>
-      </c>
       <c r="I12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1038,15 +1203,15 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1056,290 +1221,193 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="8">
-        <v>2.99</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="C16" s="10">
+        <v>38.5</v>
+      </c>
+      <c r="D16" s="9">
         <v>1</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E16" s="10">
         <f t="shared" si="1"/>
-        <v>2.99</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16">
+        <v>38.5</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="10">
+        <v>23.39</v>
+      </c>
+      <c r="D17" s="9">
         <v>1</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17">
+        <v>23.39</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="8">
-        <v>2.69</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="E18" s="1">
         <f t="shared" si="1"/>
         <v>2.69</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1">
+        <v>11.59</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>11.59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="8">
-        <v>20</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="8">
-        <v>11</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E21" s="1">
         <f>C21*D21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="8">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1">
         <v>0.99</v>
       </c>
-      <c r="D22" s="7">
-        <v>5</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" ref="E22:E25" si="2">C22*D22</f>
-        <v>4.95</v>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" ref="E22" si="2">C22*D22</f>
+        <v>1.98</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
         <v>72</v>
-      </c>
-      <c r="C23" s="8">
-        <v>1.99</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2</v>
-      </c>
-      <c r="E23" s="8">
-        <f t="shared" si="2"/>
-        <v>3.98</v>
-      </c>
-      <c r="F23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1.31</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8">
-        <f t="shared" si="2"/>
-        <v>1.31</v>
-      </c>
-      <c r="F24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="8">
-        <v>2.25</v>
-      </c>
-      <c r="D25" s="7">
-        <v>3</v>
-      </c>
-      <c r="E25" s="8">
-        <f t="shared" si="2"/>
-        <v>6.75</v>
-      </c>
-      <c r="F25" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" t="s">
-        <v>75</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="4">
-        <f>SUM(E3:E25)</f>
-        <v>173.54999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="1">
-        <f>SUM(E5,E6,E7,E9,E10,E11,E12,E15,E18,E19,E20,E22:E25)</f>
-        <v>98.350000000000009</v>
       </c>
     </row>
   </sheetData>
@@ -1356,15 +1424,338 @@
     <hyperlink ref="G9" r:id="rId7" xr:uid="{25E7E0B1-8F00-4413-B442-55693A7BE4F7}"/>
     <hyperlink ref="G10" r:id="rId8" xr:uid="{DC169C43-5AB6-4670-B456-990B68233B9E}"/>
     <hyperlink ref="G11" r:id="rId9" xr:uid="{72D1C858-F407-4608-94B1-A68BF56AEC2C}"/>
-    <hyperlink ref="G12" r:id="rId10" xr:uid="{A693F035-CA40-45EB-B471-E05D6BCC198C}"/>
-    <hyperlink ref="G16" r:id="rId11" xr:uid="{384B4B0F-91A9-493E-BAE4-CF4A7F1007B8}"/>
-    <hyperlink ref="G17" r:id="rId12" xr:uid="{D964BCCA-8F50-4EB0-8B5B-284F3524A5C4}"/>
-    <hyperlink ref="G18" r:id="rId13" xr:uid="{4FE019D7-ADCF-4598-BA12-0F28849D1C6A}"/>
-    <hyperlink ref="G23" r:id="rId14" xr:uid="{D525C2D6-5274-4537-93DE-61024A9E6610}"/>
-    <hyperlink ref="G24" r:id="rId15" xr:uid="{B9AEAAA7-F866-45FE-ACA1-5A60D07A64D8}"/>
-    <hyperlink ref="G25" r:id="rId16" xr:uid="{369ADC7C-E7DC-40A1-ACD1-04782E84449B}"/>
+    <hyperlink ref="G15" r:id="rId10" xr:uid="{09BEBB27-8858-4F6F-B29B-E1496C5E000F}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{A693F035-CA40-45EB-B471-E05D6BCC198C}"/>
+    <hyperlink ref="G16" r:id="rId12" xr:uid="{384B4B0F-91A9-493E-BAE4-CF4A7F1007B8}"/>
+    <hyperlink ref="G17" r:id="rId13" xr:uid="{D964BCCA-8F50-4EB0-8B5B-284F3524A5C4}"/>
+    <hyperlink ref="G18" r:id="rId14" xr:uid="{4FE019D7-ADCF-4598-BA12-0F28849D1C6A}"/>
+    <hyperlink ref="G20" r:id="rId15" xr:uid="{8DEE3598-4281-4B53-863F-44E9F1109489}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D8CDD5-30AA-4B63-A51E-E099D7AD43BE}">
+  <dimension ref="B2:M22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E3" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="15">
+        <v>5.89</v>
+      </c>
+      <c r="J5" s="15">
+        <v>4</v>
+      </c>
+      <c r="K5" s="15">
+        <f>I5*J5</f>
+        <v>23.56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="15">
+        <v>7</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="15">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="J6" s="15">
+        <v>2</v>
+      </c>
+      <c r="K6" s="15">
+        <f t="shared" ref="K6:K7" si="0">I6*J6</f>
+        <v>19.940000000000001</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="15">
+        <v>13.95</v>
+      </c>
+      <c r="J7" s="15">
+        <v>3</v>
+      </c>
+      <c r="K7" s="15">
+        <f>I7*J7</f>
+        <v>41.849999999999994</v>
+      </c>
+      <c r="L7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="19">
+        <v>26.98</v>
+      </c>
+      <c r="J8" s="19">
+        <v>1</v>
+      </c>
+      <c r="K8" s="19">
+        <f>I8*J8</f>
+        <v>26.98</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BAJA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jovanny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{DA5A5263-F4D8-4AD9-8F50-968DC5C3F64A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7620" xr2:uid="{DA5A5263-F4D8-4AD9-8F50-968DC5C3F64A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="163">
   <si>
     <t>500kg load cell</t>
   </si>
@@ -86,15 +87,6 @@
     <t>http://www.robotshop.com/en/500kg-s-type-load-cell.html</t>
   </si>
   <si>
-    <t>robotshop</t>
-  </si>
-  <si>
-    <t>sparkfun</t>
-  </si>
-  <si>
-    <t>adafruit</t>
-  </si>
-  <si>
     <t>http://www.robotshop.com/en/strain-gauge-load-cell-amplifier-shield-2ch.html</t>
   </si>
   <si>
@@ -104,12 +96,6 @@
     <t>https://www.sparkfun.com/products/12708</t>
   </si>
   <si>
-    <t>http://www.robotshop.com/en/dfrobot-micro-servo-motor.html</t>
-  </si>
-  <si>
-    <t>http://www.robotshop.com/en/illuminated-toggle-switch-red.html</t>
-  </si>
-  <si>
     <t>http://www.robotshop.com/en/micro-sd-card-breakout-module.html</t>
   </si>
   <si>
@@ -152,12 +138,6 @@
     <t>Saving recorded data</t>
   </si>
   <si>
-    <t>http://www.robotshop.com/en/magnet-8-x-3mm-10pk.html</t>
-  </si>
-  <si>
-    <t>Magnets(10pk)</t>
-  </si>
-  <si>
     <t>https://www.sparkfun.com/products/533</t>
   </si>
   <si>
@@ -200,15 +180,9 @@
     <t>PC Hub</t>
   </si>
   <si>
-    <t>arduino</t>
-  </si>
-  <si>
     <t>http://www.orvac.com/Catalog/Push-Button/218975.html</t>
   </si>
   <si>
-    <t>orvac electronics</t>
-  </si>
-  <si>
     <t>Push Button</t>
   </si>
   <si>
@@ -233,9 +207,6 @@
     <t>Custom Shield Arduino Mega</t>
   </si>
   <si>
-    <t>Connections for Soldering</t>
-  </si>
-  <si>
     <t>Buck Converters 6pk</t>
   </si>
   <si>
@@ -245,18 +216,12 @@
     <t>Stepping voltage down</t>
   </si>
   <si>
-    <t>12V Power Source</t>
-  </si>
-  <si>
     <t>Terminal Block</t>
   </si>
   <si>
     <t>https://www.amazon.com/eBoot-LM2596-Converter-3-0-40V-1-5-35V/dp/B01GJ0SC2C/ref=sr_1_1_sspa?ie=UTF8&amp;qid=1507863050&amp;sr=8-1-spons&amp;keywords=buck+converter&amp;psc=1</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Battery Options</t>
   </si>
   <si>
@@ -423,6 +388,144 @@
   </si>
   <si>
     <t>&lt;1lb</t>
+  </si>
+  <si>
+    <t>RobotShop</t>
+  </si>
+  <si>
+    <t>SparkFun</t>
+  </si>
+  <si>
+    <t>Adafruit</t>
+  </si>
+  <si>
+    <t>Orvac Electronics</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B01J477UHU/ref=od_aui_detailpages00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>http://www.robotshop.com/en/cytron-lcd-keypad-shield-arduino.html</t>
+  </si>
+  <si>
+    <t>Rare Earth Magnets (10pk)</t>
+  </si>
+  <si>
+    <t>https://www.harborfreight.com/10-piece-rare-earth-magnets-67488.html</t>
+  </si>
+  <si>
+    <t>Harbor Freight</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>Donated?</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/OPTIX-18-in-x-24-in-x-220-in-Acrylic-Sheet-MC-21/202038050</t>
+  </si>
+  <si>
+    <t>Home Depot</t>
+  </si>
+  <si>
+    <t>Face Plate</t>
+  </si>
+  <si>
+    <t>18" x 24" x 0.22" Acrylic Sheet</t>
+  </si>
+  <si>
+    <t>Scooter's Expenses</t>
+  </si>
+  <si>
+    <t>Donations</t>
+  </si>
+  <si>
+    <t>22 AWG - 3-wire ($/ft)</t>
+  </si>
+  <si>
+    <t>SuperBrightLEDs</t>
+  </si>
+  <si>
+    <t>18 AWG - 5-wire ($/ft)</t>
+  </si>
+  <si>
+    <t>Data transfer from sensor to dash</t>
+  </si>
+  <si>
+    <t>https://www.superbrightleds.com/moreinfo/power-wires/pvc-jacketed-3-conductor-22-awg-power-wire-pp-frpvc-gray/1850/</t>
+  </si>
+  <si>
+    <t>https://www.superbrightleds.com/moreinfo/power-wires/pvc-jacketed-5-conductor-18-awg-power-wire-pp-frpvc-gray/1849/4474/</t>
+  </si>
+  <si>
+    <t>Arduino MEGA Stackable Header Kit</t>
+  </si>
+  <si>
+    <t>Custom shield</t>
+  </si>
+  <si>
+    <t>Arduino Stackable Header 10pk</t>
+  </si>
+  <si>
+    <t>25' #22ga Hook Up Wire (B/W/R)</t>
+  </si>
+  <si>
+    <t>2.54mm/0.1" Pitch Terminal Block</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/2138</t>
+  </si>
+  <si>
+    <t>http://www.robotshop.com/en/arduino-mega-stackable-header-kit.html</t>
+  </si>
+  <si>
+    <t>http://www.robotshop.com/en/arduino-stackable-header-10-pin-4pk.html</t>
+  </si>
+  <si>
+    <t>http://www.robotshop.com/en/elenco-22-gauge-black-25-ft.html</t>
+  </si>
+  <si>
+    <t>Carbon Fiber</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Enclosure</t>
+  </si>
+  <si>
+    <t>Tony's Expenses</t>
+  </si>
+  <si>
+    <t>Luiz Orozco</t>
+  </si>
+  <si>
+    <t>ECST-EE Dept.</t>
+  </si>
+  <si>
+    <t>Part#: NTEBU 25-E100-0</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/11310</t>
+  </si>
+  <si>
+    <t>Battery Management System (BMS)</t>
+  </si>
+  <si>
+    <t>Voltage Sensor</t>
+  </si>
+  <si>
+    <t>Krystal's Expenses</t>
+  </si>
+  <si>
+    <t>Batteries (10pk)</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
   </si>
 </sst>
 </file>
@@ -432,7 +535,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,8 +564,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u val="singleAccounting"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,13 +616,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,23 +653,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1"/>
@@ -537,13 +671,60 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -860,75 +1041,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE38B4DA-7DE4-4309-AC06-0721A144F80B}">
-  <dimension ref="B1:L22"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="17"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="4">
-        <f>SUM(E3:E22)</f>
-        <v>212.32999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="H2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>50</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="17">
         <v>1</v>
       </c>
       <c r="E3" s="1">
@@ -936,386 +1117,407 @@
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>19.95</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="23">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
         <f t="shared" ref="E4:E6" si="0">C4*D4</f>
         <v>19.95</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="H4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>0.95</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="23">
         <v>2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="H5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="6">
         <v>7.5</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="23">
         <v>1</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="F6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <v>14.95</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="23">
         <v>1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <f>C7*D7</f>
         <v>14.95</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="F7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
-        <v>5.25</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="6">
+        <v>11.26</v>
+      </c>
+      <c r="D8" s="23">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <f t="shared" ref="E8:E20" si="1">C8*D8</f>
-        <v>5.25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+        <v>11.26</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D9" s="23">
         <v>2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
         <v>2.95</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="23">
         <v>2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="6">
         <f t="shared" si="1"/>
         <v>5.9</v>
       </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="F10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="6">
         <v>3.19</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="23">
         <v>2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
         <f t="shared" si="1"/>
         <v>6.38</v>
       </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="F11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="1">
+        <v>54</v>
+      </c>
+      <c r="C12" s="6">
         <v>0.35</v>
       </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="23">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+        <v>1.75</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="C13" s="6"/>
+      <c r="D13" s="23">
         <v>1</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="6">
         <f>C13*D13</f>
         <v>0</v>
       </c>
-      <c r="H13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14">
+        <v>52</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="23">
         <v>1</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="6">
         <f>C14*D14</f>
         <v>0</v>
       </c>
-      <c r="H14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="D15">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2.99</v>
+      </c>
+      <c r="D15" s="23">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="6">
         <f t="shared" si="1"/>
-        <v>4.3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="10">
+        <v>2.99</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="6">
         <v>38.5</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="23">
         <v>1</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="6">
         <f t="shared" si="1"/>
         <v>38.5</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="F16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="10">
+      <c r="H16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="6">
         <v>23.39</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="23">
         <v>1</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="6">
         <f t="shared" si="1"/>
         <v>23.39</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="9" t="s">
+      <c r="F17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>58</v>
       </c>
       <c r="C18" s="1">
         <v>2.69</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="17">
         <v>1</v>
       </c>
       <c r="E18" s="1">
@@ -1323,47 +1525,53 @@
         <v>2.69</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>64</v>
+        <v>51</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="C19" s="1">
-        <v>10</v>
-      </c>
-      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="D19" s="17">
         <v>1</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>155</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>66</v>
+        <v>142</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="C20" s="1">
         <v>11.59</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="17">
         <v>1</v>
       </c>
       <c r="E20" s="1">
@@ -1371,48 +1579,353 @@
         <v>11.59</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>69</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D21" s="17">
+        <v>2</v>
       </c>
       <c r="E21" s="1">
-        <f>C21*D21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>70</v>
+        <f t="shared" ref="E21:E32" si="2">C21*D21</f>
+        <v>1.98</v>
+      </c>
+      <c r="F21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" t="s">
+        <v>156</v>
+      </c>
+      <c r="H21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="C22" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="D22">
+        <v>24.98</v>
+      </c>
+      <c r="D22" s="17">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="2"/>
+        <v>24.98</v>
+      </c>
+      <c r="F22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D23" s="17">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="2"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="F23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="D24" s="17">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="2"/>
+        <v>7.08</v>
+      </c>
+      <c r="F24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="D25" s="17">
         <v>2</v>
       </c>
-      <c r="E22" s="1">
-        <f t="shared" ref="E22" si="2">C22*D22</f>
-        <v>1.98</v>
-      </c>
-      <c r="F22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" t="s">
-        <v>72</v>
+      <c r="E25" s="1">
+        <f t="shared" si="2"/>
+        <v>3.98</v>
+      </c>
+      <c r="F25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="2"/>
+        <v>1.31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="D27" s="17">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="2"/>
+        <v>6.75</v>
+      </c>
+      <c r="F27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D28" s="17">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="F28" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="1">
+        <v>26.98</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="2"/>
+        <v>26.98</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="2"/>
+        <v>7.22</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3.68</v>
+      </c>
+      <c r="D32" s="17">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="2"/>
+        <v>3.68</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="5"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C34" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="33">
+        <f>SUM(E12,E16,E17)</f>
+        <v>63.64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="28">
+        <f>SUM(E3,E4,E8)</f>
+        <v>81.210000000000008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20">
+        <f>SUM(E5,E6,E7,E9,E10,E11,E15,E18,E19,E20,E21:E28)</f>
+        <v>152.53000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="26">
+        <f>SUM(E30:E32)</f>
+        <v>37.880000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="34">
+        <f>SUM(E3:E29)</f>
+        <v>297.38000000000005</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:H1"/>
+  <mergeCells count="7">
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C34:E34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{CDDB7036-C13C-481F-BEE1-0F78A1DF6313}"/>
@@ -1420,19 +1933,22 @@
     <hyperlink ref="G5" r:id="rId3" xr:uid="{2E147F96-6216-465A-A8A3-4E913002F0DC}"/>
     <hyperlink ref="G6" r:id="rId4" xr:uid="{4CC49A9C-DD51-4E2E-9129-59B5F26975D7}"/>
     <hyperlink ref="G7" r:id="rId5" xr:uid="{B7831151-FE3D-4A09-9F4F-39D79CA5907B}"/>
-    <hyperlink ref="G8" r:id="rId6" xr:uid="{CDA77226-6298-49AB-8B54-B4B7C0C3A52E}"/>
-    <hyperlink ref="G9" r:id="rId7" xr:uid="{25E7E0B1-8F00-4413-B442-55693A7BE4F7}"/>
-    <hyperlink ref="G10" r:id="rId8" xr:uid="{DC169C43-5AB6-4670-B456-990B68233B9E}"/>
-    <hyperlink ref="G11" r:id="rId9" xr:uid="{72D1C858-F407-4608-94B1-A68BF56AEC2C}"/>
-    <hyperlink ref="G15" r:id="rId10" xr:uid="{09BEBB27-8858-4F6F-B29B-E1496C5E000F}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{A693F035-CA40-45EB-B471-E05D6BCC198C}"/>
-    <hyperlink ref="G16" r:id="rId12" xr:uid="{384B4B0F-91A9-493E-BAE4-CF4A7F1007B8}"/>
-    <hyperlink ref="G17" r:id="rId13" xr:uid="{D964BCCA-8F50-4EB0-8B5B-284F3524A5C4}"/>
-    <hyperlink ref="G18" r:id="rId14" xr:uid="{4FE019D7-ADCF-4598-BA12-0F28849D1C6A}"/>
-    <hyperlink ref="G20" r:id="rId15" xr:uid="{8DEE3598-4281-4B53-863F-44E9F1109489}"/>
+    <hyperlink ref="G11" r:id="rId6" xr:uid="{72D1C858-F407-4608-94B1-A68BF56AEC2C}"/>
+    <hyperlink ref="G12" r:id="rId7" xr:uid="{A693F035-CA40-45EB-B471-E05D6BCC198C}"/>
+    <hyperlink ref="G16" r:id="rId8" xr:uid="{384B4B0F-91A9-493E-BAE4-CF4A7F1007B8}"/>
+    <hyperlink ref="G17" r:id="rId9" xr:uid="{D964BCCA-8F50-4EB0-8B5B-284F3524A5C4}"/>
+    <hyperlink ref="G18" r:id="rId10" xr:uid="{4FE019D7-ADCF-4598-BA12-0F28849D1C6A}"/>
+    <hyperlink ref="G20" r:id="rId11" xr:uid="{8DEE3598-4281-4B53-863F-44E9F1109489}"/>
+    <hyperlink ref="G22" r:id="rId12" xr:uid="{41FBD379-355F-43FB-BFDC-C918AD3021BE}"/>
+    <hyperlink ref="G23" r:id="rId13" xr:uid="{D8AE16F7-7C25-4E2B-863C-D7BD1B6A1AE8}"/>
+    <hyperlink ref="G24" r:id="rId14" xr:uid="{29E9D70C-F808-4CF0-965E-402E4B655E68}"/>
+    <hyperlink ref="G28" r:id="rId15" xr:uid="{9A04A72A-3E6F-4D34-8C31-2B83206A19BB}"/>
+    <hyperlink ref="G25" r:id="rId16" xr:uid="{85022CB4-6441-464F-8FC8-D1EBF0422D00}"/>
+    <hyperlink ref="G26" r:id="rId17" xr:uid="{72405003-821A-4CB9-A619-7B2736399086}"/>
+    <hyperlink ref="G27" r:id="rId18" xr:uid="{F283EF5A-93CF-4234-885B-92236F3B13AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -1461,295 +1977,295 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E3" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="E3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="16" t="s">
-        <v>123</v>
+      <c r="M4" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="15">
+        <v>62</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="8">
         <v>4.5</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="15">
+      <c r="E5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="8">
         <v>5.89</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="8">
         <v>4</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="8">
         <f>I5*J5</f>
         <v>23.56</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="15">
+        <v>62</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="8">
         <v>7</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="15">
+      <c r="E6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="8">
         <v>9.9700000000000006</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="8">
         <v>2</v>
       </c>
-      <c r="K6" s="15">
-        <f t="shared" ref="K6:K7" si="0">I6*J6</f>
+      <c r="K6" s="8">
+        <f t="shared" ref="K6" si="0">I6*J6</f>
         <v>19.940000000000001</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="M6" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="I7" s="15">
+        <v>74</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="8">
         <v>13.95</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="8">
         <v>3</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="8">
         <f>I7*J7</f>
         <v>41.849999999999994</v>
       </c>
       <c r="L7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="I8" s="19">
+      <c r="B8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="12">
         <v>26.98</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="12">
         <v>1</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="12">
         <f>I8*J8</f>
         <v>26.98</v>
       </c>
-      <c r="L8" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>124</v>
+      <c r="L8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J9" s="15"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>88</v>
+      <c r="C10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>74</v>
+      <c r="B11" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>86</v>
+      <c r="B16" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
